--- a/DataTest/Register.xlsx
+++ b/DataTest/Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F354B-4617-4046-998D-E28161DD1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94781C6D-59C4-4BA1-9A9E-F24D67D51B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15648" yWindow="0" windowWidth="7488" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Vũ Thị Thùy Dung</t>
   </si>
   <si>
-    <t>dung47265@huce.edu.vn</t>
-  </si>
-  <si>
     <t>registerSuccessCustomerAccount</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>customer@example.com</t>
   </si>
   <si>
-    <t>dung@gmail.com</t>
-  </si>
-  <si>
     <t>Email Null Example</t>
   </si>
   <si>
@@ -103,24 +97,22 @@
   </si>
   <si>
     <t>registerFailWithExistEmail</t>
+  </si>
+  <si>
+    <t>dung</t>
+  </si>
+  <si>
+    <t>namenull@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,18 +135,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,7 +424,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,13 +455,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -484,10 +472,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>123456</v>
@@ -498,10 +486,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>123456</v>
@@ -512,13 +500,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D5">
         <v>123456</v>
@@ -529,13 +517,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>123456</v>
@@ -546,24 +534,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8">
         <v>123</v>
@@ -574,13 +562,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>123456</v>
@@ -590,14 +578,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{8F326D6B-DDF1-4EE7-86CA-2503190BC8F6}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8F76F0DA-3B67-4187-BA0E-89950296B6BF}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{6C91289F-C2F6-4856-8156-0FA4CAE15317}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{4067C6F7-7B8A-4896-9C90-F42C523459F1}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{9222956B-0995-40DB-B421-CA2FE7307E53}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>